--- a/data/origin/das_NestroStations.xlsx
+++ b/data/origin/das_NestroStations.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.489533878764214</v>
+        <v>9.272679231838751</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.62404600786533</v>
+        <v>6.852001399997177</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.504133764982823</v>
+        <v>3.557156023209783</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.343650415990125</v>
+        <v>7.194615197201468</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.811067677722727</v>
+        <v>8.979219520475576</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.956271803725447</v>
+        <v>7.012064118669685</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.31921102930902</v>
+        <v>8.853172125745875</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7995208383166128</v>
+        <v>6.158703049627184</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.35379059189978</v>
+        <v>7.022588456983068</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.600837126086653</v>
+        <v>4.064039363505931</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.111926437983195</v>
+        <v>6.870087389236402</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.821333820849084</v>
+        <v>5.114589824528919</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.285573389211762</v>
+        <v>6.630489648063774</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.435387814030843</v>
+        <v>5.626109006515401</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.119990959224779</v>
+        <v>7.059636671618997</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.22888329660496</v>
+        <v>3.468610699245925</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.110926953799574</v>
+        <v>5.485946720313301</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.608876145566221</v>
+        <v>6.819509458055233</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.335649867403987</v>
+        <v>6.566745782779507</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.557839467256052</v>
+        <v>4.264718958329697</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.240077265546328</v>
+        <v>7.156162670116964</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.524688536873409</v>
+        <v>7.318943649083609</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.961597350168223</v>
+        <v>5.106789815723094</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.153178622768688</v>
+        <v>6.764177152707226</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.136929446226175</v>
+        <v>4.919162993250064</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.459949827725667</v>
+        <v>6.044658401697066</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.359849542711597</v>
+        <v>4.796961719665659</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.601714895607969</v>
+        <v>6.587724456243053</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.155421379316957</v>
+        <v>5.099137043761016</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.346761948693771</v>
+        <v>3.650598033089209</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3777618212285239</v>
+        <v>4.719694224346998</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.73808823570985</v>
+        <v>5.4467917870339</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.827045898290184</v>
+        <v>3.469656241351407</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.806726394186876</v>
+        <v>4.870953830901059</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.654674099505194</v>
+        <v>4.911363097030533</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.032480082978918</v>
+        <v>5.510747349287287</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.329987944605601</v>
+        <v>5.115270624391554</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.668147657386253</v>
+        <v>6.371750604878252</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.624168591839505</v>
+        <v>5.62815923093672</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.888801632452</v>
+        <v>9.957406583183094</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.505222726851674</v>
+        <v>6.170335876146662</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.273215116873754</v>
+        <v>5.993302859303552</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.062549802750552</v>
+        <v>5.854453622946349</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.980757843110785</v>
+        <v>5.136121173802542</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.473316483986502</v>
+        <v>8.004703311941368</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.897395096567167</v>
+        <v>8.758960294128981</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.714634503997722</v>
+        <v>4.65289313294288</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.454959925088674</v>
+        <v>10.85331561410287</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.956691207382546</v>
+        <v>8.289447514446856</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.699806651424734</v>
+        <v>7.193524702125696</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.689594384560483</v>
+        <v>4.592051017756265</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.439228004238991</v>
+        <v>5.723088918957503</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.149399039942974</v>
+        <v>9.179596656152453</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.933505895032102</v>
+        <v>5.568921137111674</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.717785015183307</v>
+        <v>8.037824324882699</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.12207128348109</v>
+        <v>4.345203470946821</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.344769525080044</v>
+        <v>7.496901316343386</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.970970104354212</v>
+        <v>6.91530816502537</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.181590990622845</v>
+        <v>4.714699396724597</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.492454224752944</v>
+        <v>5.711504765150108</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.345539176851062</v>
+        <v>8.528763686233967</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.868347769031391</v>
+        <v>5.839375178551792</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.759508031938133</v>
+        <v>5.917009996045318</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.930441898744778</v>
+        <v>5.990101379844523</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.033656594906669</v>
+        <v>4.516463259962742</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.699527176584662</v>
+        <v>6.001695220582981</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.37718209041299</v>
+        <v>4.035582441215526</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.655956836666314</v>
+        <v>3.863491978336747</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.390999047291722</v>
+        <v>8.063413317619302</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.802473491802097</v>
+        <v>6.415396553552402</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.640724680423484</v>
+        <v>9.349528358151737</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.612829190900966</v>
+        <v>6.484742297975152</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.566816675092404</v>
+        <v>4.033411023777975</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.952867115119867</v>
+        <v>10.09411877951336</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.210849580669935</v>
+        <v>6.180960857823798</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9199325849813613</v>
+        <v>3.809561568581346</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.112413127646692</v>
+        <v>3.655489572135097</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.404181439753089</v>
+        <v>10.47434362922099</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.147328058085009</v>
+        <v>2.314863175156988</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.600003066332189</v>
+        <v>8.095791125015838</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9996854039619949</v>
+        <v>8.826510036755055</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.23885418337716</v>
+        <v>7.232203581143021</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.706304929195309</v>
+        <v>8.049324763233793</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.380710531262443</v>
+        <v>6.933045483821791</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.609647965814907</v>
+        <v>5.204046940355553</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.627408237009812</v>
+        <v>3.551644032397137</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.878444722401389</v>
+        <v>2.309813577228175</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.401839489755599</v>
+        <v>8.759736138537695</v>
       </c>
     </row>
   </sheetData>
